--- a/19aihw.xlsx
+++ b/19aihw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15015\DOCUME~1\MobaXterm\slash\RemoteFiles\15205874_2_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15015\DOCUME~1\MobaXterm\slash\RemoteFiles\66516_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F23893C-5D7C-49A6-AFA6-AF745CE7EA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6099919-5F53-4081-A6F6-307174D1BA4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>罗皓文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵海啸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -804,6 +808,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>201800130094</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
